--- a/data/pca/factorExposure/factorExposure_2017-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02393683430533388</v>
+        <v>0.01428973588850699</v>
       </c>
       <c r="C2">
-        <v>0.002671832963092257</v>
+        <v>0.03700645487519741</v>
       </c>
       <c r="D2">
-        <v>0.01527118524933981</v>
+        <v>-0.02855625712326771</v>
       </c>
       <c r="E2">
-        <v>0.01347114936223463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03189437300164893</v>
+      </c>
+      <c r="F2">
+        <v>0.02722561601047346</v>
+      </c>
+      <c r="G2">
+        <v>0.01795975579556122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01174415713994287</v>
+        <v>0.05255609314784306</v>
       </c>
       <c r="C3">
-        <v>0.04627491435997134</v>
+        <v>0.07519046719944471</v>
       </c>
       <c r="D3">
-        <v>0.01415575536439278</v>
+        <v>-0.01477155578711915</v>
       </c>
       <c r="E3">
-        <v>0.01139314828533774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09333093049769274</v>
+      </c>
+      <c r="F3">
+        <v>0.06183482079670451</v>
+      </c>
+      <c r="G3">
+        <v>0.07057529303442542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02196166854342557</v>
+        <v>0.05573628464145218</v>
       </c>
       <c r="C4">
-        <v>0.01694038641218832</v>
+        <v>0.06208607994851868</v>
       </c>
       <c r="D4">
-        <v>0.06320066074343474</v>
+        <v>-0.02281041687772237</v>
       </c>
       <c r="E4">
-        <v>-0.01155444015561146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01098948720172738</v>
+      </c>
+      <c r="F4">
+        <v>0.01155824913377559</v>
+      </c>
+      <c r="G4">
+        <v>0.04479754842777006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01477156858180005</v>
+        <v>0.03261332517107023</v>
       </c>
       <c r="C6">
-        <v>0.02404110505886344</v>
+        <v>0.05303642132835478</v>
       </c>
       <c r="D6">
-        <v>0.08301532099098589</v>
+        <v>-0.01607892735565096</v>
       </c>
       <c r="E6">
-        <v>0.002887912643090889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.007223075349956352</v>
+      </c>
+      <c r="F6">
+        <v>0.01193210369193676</v>
+      </c>
+      <c r="G6">
+        <v>0.02481739477757521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01032254318122269</v>
+        <v>0.01995926995142046</v>
       </c>
       <c r="C7">
-        <v>0.006936370402085335</v>
+        <v>0.03587896838924339</v>
       </c>
       <c r="D7">
-        <v>0.03951094974866379</v>
+        <v>-0.01262371624430968</v>
       </c>
       <c r="E7">
-        <v>-0.06776203453684762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01349550379686543</v>
+      </c>
+      <c r="F7">
+        <v>0.008956482982993886</v>
+      </c>
+      <c r="G7">
+        <v>0.07717126519081652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1.630407854633092e-05</v>
+        <v>-0.001068288423362345</v>
       </c>
       <c r="C8">
-        <v>-0.007044655176924469</v>
+        <v>0.01445900916601025</v>
       </c>
       <c r="D8">
-        <v>0.01764005472260617</v>
+        <v>-0.003694957168626004</v>
       </c>
       <c r="E8">
-        <v>-0.004238354439484072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01692586146477335</v>
+      </c>
+      <c r="F8">
+        <v>0.01439586648320262</v>
+      </c>
+      <c r="G8">
+        <v>0.02500954859238113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01442518449082286</v>
+        <v>0.02854350685478278</v>
       </c>
       <c r="C9">
-        <v>0.01902136585393849</v>
+        <v>0.04158256564585328</v>
       </c>
       <c r="D9">
-        <v>0.04440891631909504</v>
+        <v>-0.01583329370824026</v>
       </c>
       <c r="E9">
-        <v>-0.00211063681990549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01296289023634129</v>
+      </c>
+      <c r="F9">
+        <v>0.01923200296765184</v>
+      </c>
+      <c r="G9">
+        <v>0.03639320437544673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008476020431771326</v>
+        <v>0.08921474880565602</v>
       </c>
       <c r="C10">
-        <v>0.1442569519547704</v>
+        <v>-0.1857685553743671</v>
       </c>
       <c r="D10">
-        <v>-0.1353292684966059</v>
+        <v>0.01927384166988342</v>
       </c>
       <c r="E10">
-        <v>-0.02034115501040891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01459426504341067</v>
+      </c>
+      <c r="F10">
+        <v>-0.01169907463144623</v>
+      </c>
+      <c r="G10">
+        <v>0.04005779178717245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>8.506501241413694e-05</v>
+        <v>0.03505739956618014</v>
       </c>
       <c r="C11">
-        <v>0.006234640808510046</v>
+        <v>0.05382032881357095</v>
       </c>
       <c r="D11">
-        <v>0.04476518482779201</v>
+        <v>-0.00191095585178252</v>
       </c>
       <c r="E11">
-        <v>0.01328624241412245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.00150218792101034</v>
+      </c>
+      <c r="F11">
+        <v>0.02438667682184663</v>
+      </c>
+      <c r="G11">
+        <v>0.01833473222583206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005352297075443057</v>
+        <v>0.0321428706240785</v>
       </c>
       <c r="C12">
-        <v>0.01554990895345652</v>
+        <v>0.0449800171983723</v>
       </c>
       <c r="D12">
-        <v>0.04738209466927921</v>
+        <v>-0.005860066423040763</v>
       </c>
       <c r="E12">
-        <v>0.004950644024798674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006175775745874724</v>
+      </c>
+      <c r="F12">
+        <v>0.008382675603784853</v>
+      </c>
+      <c r="G12">
+        <v>0.0232910074772038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02127368165625331</v>
+        <v>0.01359292924479952</v>
       </c>
       <c r="C13">
-        <v>0.01675656892060485</v>
+        <v>0.03235441884601351</v>
       </c>
       <c r="D13">
-        <v>0.01002478620862604</v>
+        <v>-0.02488822402481104</v>
       </c>
       <c r="E13">
-        <v>0.008653204032742435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0246705964188514</v>
+      </c>
+      <c r="F13">
+        <v>0.01376023279117566</v>
+      </c>
+      <c r="G13">
+        <v>0.03117288917016998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006980139147520154</v>
+        <v>0.008703751232908563</v>
       </c>
       <c r="C14">
-        <v>0.01419086672467647</v>
+        <v>0.02675949848910996</v>
       </c>
       <c r="D14">
-        <v>0.01677092528117675</v>
+        <v>-0.008549125419621138</v>
       </c>
       <c r="E14">
-        <v>-0.00936549152554178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007071392620716842</v>
+      </c>
+      <c r="F14">
+        <v>0.001561835545829294</v>
+      </c>
+      <c r="G14">
+        <v>0.03835143964091859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005380041400625249</v>
+        <v>0.03136337868097035</v>
       </c>
       <c r="C16">
-        <v>0.01286598088507354</v>
+        <v>0.04383364474020881</v>
       </c>
       <c r="D16">
-        <v>0.0515900698516313</v>
+        <v>-0.001462804693591034</v>
       </c>
       <c r="E16">
-        <v>0.008182451653922739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.003349271443399884</v>
+      </c>
+      <c r="F16">
+        <v>0.01028242446356093</v>
+      </c>
+      <c r="G16">
+        <v>0.02276798030738144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01239242620143581</v>
+        <v>0.0297898688621988</v>
       </c>
       <c r="C19">
-        <v>0.0215696937447439</v>
+        <v>0.05121639857136748</v>
       </c>
       <c r="D19">
-        <v>0.0273346298649998</v>
+        <v>-0.01580360564421934</v>
       </c>
       <c r="E19">
-        <v>-0.003049509291950471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04920249073113059</v>
+      </c>
+      <c r="F19">
+        <v>0.03363997161935045</v>
+      </c>
+      <c r="G19">
+        <v>0.04325253920785255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01036059956106409</v>
+        <v>0.01269128256626145</v>
       </c>
       <c r="C20">
-        <v>0.00645195986664667</v>
+        <v>0.03456556451641736</v>
       </c>
       <c r="D20">
-        <v>0.01404681755418155</v>
+        <v>-0.01315192305411013</v>
       </c>
       <c r="E20">
-        <v>0.002568237900310482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02332062313297198</v>
+      </c>
+      <c r="F20">
+        <v>0.001514033914036273</v>
+      </c>
+      <c r="G20">
+        <v>0.03626771369597191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01343731482189574</v>
+        <v>0.01560922631237841</v>
       </c>
       <c r="C21">
-        <v>0.03699752893178069</v>
+        <v>0.03486976747344618</v>
       </c>
       <c r="D21">
-        <v>0.01451484405639986</v>
+        <v>-0.01621676609823151</v>
       </c>
       <c r="E21">
-        <v>-0.01798486693956181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03068745931344915</v>
+      </c>
+      <c r="F21">
+        <v>0.01111736206897814</v>
+      </c>
+      <c r="G21">
+        <v>0.05768298830530362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004654646066582572</v>
+        <v>0.0263819270440857</v>
       </c>
       <c r="C24">
-        <v>0.007429391099914365</v>
+        <v>0.04670570793021913</v>
       </c>
       <c r="D24">
-        <v>0.04580407618003368</v>
+        <v>-0.006702480252580758</v>
       </c>
       <c r="E24">
-        <v>0.008350286028265241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001253418939447663</v>
+      </c>
+      <c r="F24">
+        <v>0.02010978931121844</v>
+      </c>
+      <c r="G24">
+        <v>0.02197204161037875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0108420202340929</v>
+        <v>0.04358078245098067</v>
       </c>
       <c r="C25">
-        <v>0.02516868942258734</v>
+        <v>0.05343057197462823</v>
       </c>
       <c r="D25">
-        <v>0.04413112255711477</v>
+        <v>-0.01053974152949827</v>
       </c>
       <c r="E25">
-        <v>0.007636006737510014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008861834571004455</v>
+      </c>
+      <c r="F25">
+        <v>0.01583357142442279</v>
+      </c>
+      <c r="G25">
+        <v>0.02770715779503585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02270301524457085</v>
+        <v>0.009175998195258148</v>
       </c>
       <c r="C26">
-        <v>0.008526960927612784</v>
+        <v>0.00972215466540168</v>
       </c>
       <c r="D26">
-        <v>-0.004299736512326525</v>
+        <v>-0.02361579506618842</v>
       </c>
       <c r="E26">
-        <v>-0.007142900979016022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.006760963576436605</v>
+      </c>
+      <c r="F26">
+        <v>0.003067585609157067</v>
+      </c>
+      <c r="G26">
+        <v>0.02748059608252351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02542333817934637</v>
+        <v>0.1154943724471933</v>
       </c>
       <c r="C28">
-        <v>0.2146328860477745</v>
+        <v>-0.229535201810663</v>
       </c>
       <c r="D28">
-        <v>-0.191916766758201</v>
+        <v>0.01053177442611218</v>
       </c>
       <c r="E28">
-        <v>-0.03210976598263412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006459812031909412</v>
+      </c>
+      <c r="F28">
+        <v>-0.005386672580274678</v>
+      </c>
+      <c r="G28">
+        <v>0.05769597464186432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007160271757607593</v>
+        <v>0.01361401154273309</v>
       </c>
       <c r="C29">
-        <v>0.01909245452901827</v>
+        <v>0.02044980230400367</v>
       </c>
       <c r="D29">
-        <v>0.01414988179280544</v>
+        <v>-0.007174402469755941</v>
       </c>
       <c r="E29">
-        <v>-0.005023982119375958</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008137620600065973</v>
+      </c>
+      <c r="F29">
+        <v>-0.009038756221804368</v>
+      </c>
+      <c r="G29">
+        <v>0.02865430830478691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02368029754276654</v>
+        <v>0.04525779027598937</v>
       </c>
       <c r="C30">
-        <v>0.009535989966003086</v>
+        <v>0.06891609526695122</v>
       </c>
       <c r="D30">
-        <v>0.0631514302101176</v>
+        <v>-0.02722117861734564</v>
       </c>
       <c r="E30">
-        <v>0.06384049171898504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03899548350084141</v>
+      </c>
+      <c r="F30">
+        <v>0.04176009572136389</v>
+      </c>
+      <c r="G30">
+        <v>0.004462775348819799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006575398232820044</v>
+        <v>0.04540100039401272</v>
       </c>
       <c r="C31">
-        <v>0.04713032288011278</v>
+        <v>0.03096853156808028</v>
       </c>
       <c r="D31">
-        <v>0.03959159235888612</v>
+        <v>-0.003279843329248653</v>
       </c>
       <c r="E31">
-        <v>-0.001159784166044987</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01078596594637059</v>
+      </c>
+      <c r="F31">
+        <v>-0.03338290972153735</v>
+      </c>
+      <c r="G31">
+        <v>0.02707184437070024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007142373266398563</v>
+        <v>0.003695994520178878</v>
       </c>
       <c r="C32">
-        <v>0.01524134196888948</v>
+        <v>0.03558337588024182</v>
       </c>
       <c r="D32">
-        <v>0.008412628949370515</v>
+        <v>0.004093856311442011</v>
       </c>
       <c r="E32">
-        <v>-0.02483519575606071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01314363583963336</v>
+      </c>
+      <c r="F32">
+        <v>0.06540553427720902</v>
+      </c>
+      <c r="G32">
+        <v>0.04862655251622538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01190061706710029</v>
+        <v>0.02783800334080375</v>
       </c>
       <c r="C33">
-        <v>0.02379279083000382</v>
+        <v>0.05059064435868427</v>
       </c>
       <c r="D33">
-        <v>0.02208460199638285</v>
+        <v>-0.0144205261731077</v>
       </c>
       <c r="E33">
-        <v>0.02639821158576023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02298462207470955</v>
+      </c>
+      <c r="F33">
+        <v>0.02850218916138868</v>
+      </c>
+      <c r="G33">
+        <v>0.02891535244299551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005163777463533234</v>
+        <v>0.04441706666549378</v>
       </c>
       <c r="C34">
-        <v>0.02036896404919153</v>
+        <v>0.05456081432849538</v>
       </c>
       <c r="D34">
-        <v>0.04958695185658193</v>
+        <v>0.005355930944986534</v>
       </c>
       <c r="E34">
-        <v>-0.0003716399074358663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.009869035434168659</v>
+      </c>
+      <c r="F34">
+        <v>0.02637099759225834</v>
+      </c>
+      <c r="G34">
+        <v>0.03354533702077915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01150332815099816</v>
+        <v>0.01108955051304922</v>
       </c>
       <c r="C36">
-        <v>0.01796187708694525</v>
+        <v>0.006953419482117709</v>
       </c>
       <c r="D36">
-        <v>0.0007917901251209108</v>
+        <v>-0.01131448195422047</v>
       </c>
       <c r="E36">
-        <v>-0.002252154345132974</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002428613378775961</v>
+      </c>
+      <c r="F36">
+        <v>-0.0008095103375075774</v>
+      </c>
+      <c r="G36">
+        <v>0.02281288288920583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006597883692880903</v>
+        <v>0.03307457022361618</v>
       </c>
       <c r="C38">
-        <v>0.02609299997400596</v>
+        <v>0.02551984600581617</v>
       </c>
       <c r="D38">
-        <v>0.02518942310350002</v>
+        <v>0.007869197322849474</v>
       </c>
       <c r="E38">
-        <v>0.0006461297279471753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003480120122887874</v>
+      </c>
+      <c r="F38">
+        <v>0.001825181360373949</v>
+      </c>
+      <c r="G38">
+        <v>0.02977445580704955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005874751565037442</v>
+        <v>0.03300102782658964</v>
       </c>
       <c r="C39">
-        <v>-0.01482410982311865</v>
+        <v>0.08146195642086926</v>
       </c>
       <c r="D39">
-        <v>0.09670035289097315</v>
+        <v>-0.01217547250047415</v>
       </c>
       <c r="E39">
-        <v>0.0168626641193424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02296959214687875</v>
+      </c>
+      <c r="F39">
+        <v>0.03864177779363476</v>
+      </c>
+      <c r="G39">
+        <v>0.02445756527821978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01051357948435277</v>
+        <v>0.02178953573528464</v>
       </c>
       <c r="C40">
-        <v>0.01915402681717668</v>
+        <v>0.03040439738415599</v>
       </c>
       <c r="D40">
-        <v>0.03797615261962098</v>
+        <v>-0.01293629934273545</v>
       </c>
       <c r="E40">
-        <v>0.01157728149292899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02094012737353687</v>
+      </c>
+      <c r="F40">
+        <v>0.01727616519352259</v>
+      </c>
+      <c r="G40">
+        <v>0.02348811230567795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004849748051004158</v>
+        <v>0.01201340475938404</v>
       </c>
       <c r="C41">
-        <v>0.02011497868454711</v>
+        <v>-0.001084267572149598</v>
       </c>
       <c r="D41">
-        <v>-0.00831169943539573</v>
+        <v>-0.003497680921375632</v>
       </c>
       <c r="E41">
-        <v>-0.003178876751169437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003793053290628843</v>
+      </c>
+      <c r="F41">
+        <v>0.00187339208385658</v>
+      </c>
+      <c r="G41">
+        <v>0.01405783996842046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09114991193067735</v>
+        <v>0.02121916960264143</v>
       </c>
       <c r="C42">
-        <v>0.01101086355871389</v>
+        <v>0.04749926605966775</v>
       </c>
       <c r="D42">
-        <v>0.2132968042436241</v>
+        <v>-0.0973052267139313</v>
       </c>
       <c r="E42">
-        <v>0.2846465597685958</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04340339574399785</v>
+      </c>
+      <c r="F42">
+        <v>-0.06318108593907314</v>
+      </c>
+      <c r="G42">
+        <v>-0.1827164889761265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005742587603936171</v>
+        <v>0.02802963121938537</v>
       </c>
       <c r="C43">
-        <v>0.02096523893000508</v>
+        <v>0.007675673758373779</v>
       </c>
       <c r="D43">
-        <v>-0.01335631466876428</v>
+        <v>-0.003748772207223032</v>
       </c>
       <c r="E43">
-        <v>0.0002175983864938812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003628659614220686</v>
+      </c>
+      <c r="F43">
+        <v>0.001286990353853622</v>
+      </c>
+      <c r="G43">
+        <v>0.02020717779843976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002936954153305966</v>
+        <v>0.01685279327886417</v>
       </c>
       <c r="C44">
-        <v>-0.001663955308984329</v>
+        <v>0.04755633125382961</v>
       </c>
       <c r="D44">
-        <v>0.02670135065561505</v>
+        <v>-0.006531462976335996</v>
       </c>
       <c r="E44">
-        <v>-0.0025599040319664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01618402550231574</v>
+      </c>
+      <c r="F44">
+        <v>0.0203744625029038</v>
+      </c>
+      <c r="G44">
+        <v>0.03528710676588506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01040503761367003</v>
+        <v>0.005478126607633225</v>
       </c>
       <c r="C46">
-        <v>0.01884543362172669</v>
+        <v>0.01634569253905051</v>
       </c>
       <c r="D46">
-        <v>0.0163978425282088</v>
+        <v>-0.01161382898998447</v>
       </c>
       <c r="E46">
-        <v>0.004419216896094712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0005716655855488446</v>
+      </c>
+      <c r="F46">
+        <v>-0.01306998513181694</v>
+      </c>
+      <c r="G46">
+        <v>0.02628449100157442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.000174245018093869</v>
+        <v>0.07416674391158869</v>
       </c>
       <c r="C47">
-        <v>0.06159036093172988</v>
+        <v>0.06323606174587793</v>
       </c>
       <c r="D47">
-        <v>0.04763983276846089</v>
+        <v>0.005044123068979865</v>
       </c>
       <c r="E47">
-        <v>0.008935638855751344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01596401799096306</v>
+      </c>
+      <c r="F47">
+        <v>-0.05519087456231645</v>
+      </c>
+      <c r="G47">
+        <v>0.02672668083671447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002290041993623172</v>
+        <v>0.02179664781657875</v>
       </c>
       <c r="C48">
-        <v>0.02799209321589595</v>
+        <v>0.009067277879405724</v>
       </c>
       <c r="D48">
-        <v>0.01003941121657836</v>
+        <v>-0.0005413340015601071</v>
       </c>
       <c r="E48">
-        <v>0.0008789291011661023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0003922425080419342</v>
+      </c>
+      <c r="F48">
+        <v>-0.01325519377239277</v>
+      </c>
+      <c r="G48">
+        <v>0.02840920474056652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001678504669745111</v>
+        <v>0.08079481267125248</v>
       </c>
       <c r="C50">
-        <v>0.05198059604664249</v>
+        <v>0.06397920284890006</v>
       </c>
       <c r="D50">
-        <v>0.06222801020635246</v>
+        <v>0.003938382752916522</v>
       </c>
       <c r="E50">
-        <v>-0.01565919436990609</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0151916814020148</v>
+      </c>
+      <c r="F50">
+        <v>-0.05048912370840526</v>
+      </c>
+      <c r="G50">
+        <v>0.04746343693708078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00694964559957136</v>
+        <v>0.01220101415649536</v>
       </c>
       <c r="C51">
-        <v>0.0202609798824146</v>
+        <v>0.02864784854475172</v>
       </c>
       <c r="D51">
-        <v>-0.0143808835501385</v>
+        <v>-0.009038905484094107</v>
       </c>
       <c r="E51">
-        <v>-0.01021637308718285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009598669916268307</v>
+      </c>
+      <c r="F51">
+        <v>0.03075797127691374</v>
+      </c>
+      <c r="G51">
+        <v>0.04795298273361813</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002897890375048086</v>
+        <v>0.09539809993980558</v>
       </c>
       <c r="C53">
-        <v>0.08481295716615136</v>
+        <v>0.07840310431461477</v>
       </c>
       <c r="D53">
-        <v>0.1028712331660127</v>
+        <v>0.005623678187603108</v>
       </c>
       <c r="E53">
-        <v>0.007141285292500525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04035688963471617</v>
+      </c>
+      <c r="F53">
+        <v>-0.05947208462174255</v>
+      </c>
+      <c r="G53">
+        <v>0.02631876153013475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001571073236711346</v>
+        <v>0.02930671601482642</v>
       </c>
       <c r="C54">
-        <v>0.0351648802991406</v>
+        <v>0.006937087157992123</v>
       </c>
       <c r="D54">
-        <v>-0.0120489928213857</v>
+        <v>0.003419538736313183</v>
       </c>
       <c r="E54">
-        <v>-0.01202697121297134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002574802351293725</v>
+      </c>
+      <c r="F54">
+        <v>0.001183643958441855</v>
+      </c>
+      <c r="G54">
+        <v>0.03276057018022595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0007800032705246609</v>
+        <v>0.07379386018247241</v>
       </c>
       <c r="C55">
-        <v>0.06156706872596703</v>
+        <v>0.07285623894831106</v>
       </c>
       <c r="D55">
-        <v>0.0883843446463711</v>
+        <v>0.00465469767111448</v>
       </c>
       <c r="E55">
-        <v>0.01747522257170315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03219705789272625</v>
+      </c>
+      <c r="F55">
+        <v>-0.05528466988167139</v>
+      </c>
+      <c r="G55">
+        <v>0.01205720642395336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0004979410474791206</v>
+        <v>0.1436684265717675</v>
       </c>
       <c r="C56">
-        <v>0.1068406206881996</v>
+        <v>0.102303053406394</v>
       </c>
       <c r="D56">
-        <v>0.1307676565559798</v>
+        <v>0.01374784211534684</v>
       </c>
       <c r="E56">
-        <v>0.01981277502093691</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0459117476191722</v>
+      </c>
+      <c r="F56">
+        <v>-0.09368280322694424</v>
+      </c>
+      <c r="G56">
+        <v>0.003275442303593065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02264295341123847</v>
+        <v>0.01173128412234583</v>
       </c>
       <c r="C57">
-        <v>0.01907103703347081</v>
+        <v>0.01084010166729988</v>
       </c>
       <c r="D57">
-        <v>0.03879865808969443</v>
+        <v>-0.02359043298419932</v>
       </c>
       <c r="E57">
-        <v>0.01359279104145252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02918332534672726</v>
+      </c>
+      <c r="F57">
+        <v>0.01531539913998833</v>
+      </c>
+      <c r="G57">
+        <v>0.01975865857592445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008346395469269931</v>
+        <v>0.07741584994213203</v>
       </c>
       <c r="C58">
-        <v>0.08993229290928943</v>
+        <v>0.05347667222686255</v>
       </c>
       <c r="D58">
-        <v>0.09763349157741269</v>
+        <v>-0.01886239395269279</v>
       </c>
       <c r="E58">
-        <v>0.2222087953560761</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.937142123981582</v>
+      </c>
+      <c r="F58">
+        <v>-0.2604985194433353</v>
+      </c>
+      <c r="G58">
+        <v>0.02816902406128133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02188727453481768</v>
+        <v>0.1509496417616347</v>
       </c>
       <c r="C59">
-        <v>0.2245483045516524</v>
+        <v>-0.2127319217527367</v>
       </c>
       <c r="D59">
-        <v>-0.1943873819194988</v>
+        <v>0.01696902399045305</v>
       </c>
       <c r="E59">
-        <v>-0.008688137258552752</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01277370959188741</v>
+      </c>
+      <c r="F59">
+        <v>0.01039323304193541</v>
+      </c>
+      <c r="G59">
+        <v>0.02116781267004099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02806042115009809</v>
+        <v>0.2914241200164305</v>
       </c>
       <c r="C60">
-        <v>0.1651381346835058</v>
+        <v>0.08788180118093956</v>
       </c>
       <c r="D60">
-        <v>0.07808241032085815</v>
+        <v>-0.008394827671110798</v>
       </c>
       <c r="E60">
-        <v>0.05448793436681765</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01856200648490349</v>
+      </c>
+      <c r="F60">
+        <v>0.3690535907915924</v>
+      </c>
+      <c r="G60">
+        <v>-0.09866249247489216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002733639831018894</v>
+        <v>0.03341229475722816</v>
       </c>
       <c r="C61">
-        <v>0.01057842938980408</v>
+        <v>0.06369210889531816</v>
       </c>
       <c r="D61">
-        <v>0.06704988840968598</v>
+        <v>-0.005296376577216881</v>
       </c>
       <c r="E61">
-        <v>0.01118834276530632</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01068264315299859</v>
+      </c>
+      <c r="F61">
+        <v>0.02172669736623551</v>
+      </c>
+      <c r="G61">
+        <v>0.02319098264858327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007014396042775958</v>
+        <v>0.01433871619856175</v>
       </c>
       <c r="C63">
-        <v>0.008279512624920011</v>
+        <v>0.02697624123972599</v>
       </c>
       <c r="D63">
-        <v>0.01096041587298106</v>
+        <v>-0.007939561683509897</v>
       </c>
       <c r="E63">
-        <v>-0.005700445650945941</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007074977827190697</v>
+      </c>
+      <c r="F63">
+        <v>-0.006807953117642086</v>
+      </c>
+      <c r="G63">
+        <v>0.03268432667359864</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006451247719073555</v>
+        <v>0.0496791183971955</v>
       </c>
       <c r="C64">
-        <v>0.03512411273685982</v>
+        <v>0.03671386417690628</v>
       </c>
       <c r="D64">
-        <v>0.06526780787450287</v>
+        <v>-0.00485941211373501</v>
       </c>
       <c r="E64">
-        <v>0.01441729552508128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005668846201839001</v>
+      </c>
+      <c r="F64">
+        <v>0.008427057667954353</v>
+      </c>
+      <c r="G64">
+        <v>0.02097415032165301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0171082401680283</v>
+        <v>0.08416002967330433</v>
       </c>
       <c r="C65">
-        <v>0.03044515533246</v>
+        <v>0.06419390258890022</v>
       </c>
       <c r="D65">
-        <v>0.09293165222209303</v>
+        <v>-0.01482724164966252</v>
       </c>
       <c r="E65">
-        <v>0.00592071164791203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.006895551076182701</v>
+      </c>
+      <c r="F65">
+        <v>0.02964654124387742</v>
+      </c>
+      <c r="G65">
+        <v>0.008700719356173859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00537279796728932</v>
+        <v>0.05360874254807026</v>
       </c>
       <c r="C66">
-        <v>-0.003442314883758393</v>
+        <v>0.1145665869872749</v>
       </c>
       <c r="D66">
-        <v>0.1180676016359421</v>
+        <v>-0.01176109349017124</v>
       </c>
       <c r="E66">
-        <v>0.03446328028756418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02410996069148797</v>
+      </c>
+      <c r="F66">
+        <v>0.04774836738327263</v>
+      </c>
+      <c r="G66">
+        <v>0.01470311327691968</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001700303072733854</v>
+        <v>0.05627451389390429</v>
       </c>
       <c r="C67">
-        <v>0.04457205856822047</v>
+        <v>0.02957352114059445</v>
       </c>
       <c r="D67">
-        <v>0.02756882407631889</v>
+        <v>0.006227262214058229</v>
       </c>
       <c r="E67">
-        <v>0.00324928098508731</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004119114712345153</v>
+      </c>
+      <c r="F67">
+        <v>0.0007813277026794129</v>
+      </c>
+      <c r="G67">
+        <v>0.02829722379593842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03913060687264289</v>
+        <v>0.1348330748116285</v>
       </c>
       <c r="C68">
-        <v>0.1899334141802359</v>
+        <v>-0.272823194303134</v>
       </c>
       <c r="D68">
-        <v>-0.1845073174722093</v>
+        <v>-0.0006304371927407751</v>
       </c>
       <c r="E68">
-        <v>-0.004628332385722954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01071298585217821</v>
+      </c>
+      <c r="F68">
+        <v>-0.02514035525737177</v>
+      </c>
+      <c r="G68">
+        <v>0.01979472682244318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003707819076013138</v>
+        <v>0.07824697583886335</v>
       </c>
       <c r="C69">
-        <v>0.04902270795156564</v>
+        <v>0.06427197715379999</v>
       </c>
       <c r="D69">
-        <v>0.05239189035054582</v>
+        <v>0.009082027093354374</v>
       </c>
       <c r="E69">
-        <v>0.003491933026223686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03367757393263632</v>
+      </c>
+      <c r="F69">
+        <v>-0.03797339375000571</v>
+      </c>
+      <c r="G69">
+        <v>0.02617103428896533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02713255948374202</v>
+        <v>0.1295567204711202</v>
       </c>
       <c r="C71">
-        <v>0.170605033105434</v>
+        <v>-0.2297441624441876</v>
       </c>
       <c r="D71">
-        <v>-0.1630825788089485</v>
+        <v>0.007916758177140003</v>
       </c>
       <c r="E71">
-        <v>-0.01633456721024027</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02135611917440692</v>
+      </c>
+      <c r="F71">
+        <v>-0.01626067349939831</v>
+      </c>
+      <c r="G71">
+        <v>0.03356041870222632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003205876382037118</v>
+        <v>0.08351931732738847</v>
       </c>
       <c r="C72">
-        <v>0.05317964569922436</v>
+        <v>0.07291595133518432</v>
       </c>
       <c r="D72">
-        <v>0.1386034478935243</v>
+        <v>0.008777618061057681</v>
       </c>
       <c r="E72">
-        <v>0.03803040017117152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01288244323122824</v>
+      </c>
+      <c r="F72">
+        <v>0.04344986676625535</v>
+      </c>
+      <c r="G72">
+        <v>0.00506113045726193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04156656909418085</v>
+        <v>0.4010862434376681</v>
       </c>
       <c r="C73">
-        <v>0.196839359603271</v>
+        <v>0.1008949248658706</v>
       </c>
       <c r="D73">
-        <v>0.1421447998689648</v>
+        <v>-0.0137423666033976</v>
       </c>
       <c r="E73">
-        <v>0.1218023366419813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08355385221521626</v>
+      </c>
+      <c r="F73">
+        <v>0.536324114546198</v>
+      </c>
+      <c r="G73">
+        <v>-0.1548324484605022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0016268528438971</v>
+        <v>0.1171031091270902</v>
       </c>
       <c r="C74">
-        <v>0.1015005798835842</v>
+        <v>0.1168403186884216</v>
       </c>
       <c r="D74">
-        <v>0.1261954655771629</v>
+        <v>0.01030750158730936</v>
       </c>
       <c r="E74">
-        <v>0.02638231886954422</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04030940145997395</v>
+      </c>
+      <c r="F74">
+        <v>-0.06740213247015558</v>
+      </c>
+      <c r="G74">
+        <v>0.0252753306597037</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0009777500624590287</v>
+        <v>0.261176686170827</v>
       </c>
       <c r="C75">
-        <v>0.2333035547769984</v>
+        <v>0.1494550343962323</v>
       </c>
       <c r="D75">
-        <v>0.2161471531117368</v>
+        <v>0.03135781723569765</v>
       </c>
       <c r="E75">
-        <v>0.05546971758653028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07565059472262652</v>
+      </c>
+      <c r="F75">
+        <v>-0.2120925518951308</v>
+      </c>
+      <c r="G75">
+        <v>-0.02945575856827401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006138120933968009</v>
+        <v>0.1383803453490677</v>
       </c>
       <c r="C76">
-        <v>0.1742436432037195</v>
+        <v>0.1234611557020413</v>
       </c>
       <c r="D76">
-        <v>0.2076991222932067</v>
+        <v>0.0214902091786933</v>
       </c>
       <c r="E76">
-        <v>0.02008256123706273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0710733118263082</v>
+      </c>
+      <c r="F76">
+        <v>-0.1299505022550448</v>
+      </c>
+      <c r="G76">
+        <v>0.01667532070308341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01195571096595899</v>
+        <v>0.06354557021971927</v>
       </c>
       <c r="C77">
-        <v>0.01685789706035912</v>
+        <v>0.06297124009219741</v>
       </c>
       <c r="D77">
-        <v>0.06215125799049055</v>
+        <v>-0.01268699744922585</v>
       </c>
       <c r="E77">
-        <v>0.01194966347448217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05003229966964774</v>
+      </c>
+      <c r="F77">
+        <v>0.01238469412995966</v>
+      </c>
+      <c r="G77">
+        <v>0.05137186332635275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004043371361281655</v>
+        <v>0.03980232913159414</v>
       </c>
       <c r="C78">
-        <v>0.01747538523793897</v>
+        <v>0.04957659807030217</v>
       </c>
       <c r="D78">
-        <v>0.06227944325411119</v>
+        <v>-0.005561531620100796</v>
       </c>
       <c r="E78">
-        <v>0.007989468331144957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02268974322959838</v>
+      </c>
+      <c r="F78">
+        <v>0.04164253194444278</v>
+      </c>
+      <c r="G78">
+        <v>0.03440115322360109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01327534958718782</v>
+        <v>0.0607633250426023</v>
       </c>
       <c r="C80">
-        <v>0.1600258229652304</v>
+        <v>0.06623173488364702</v>
       </c>
       <c r="D80">
-        <v>0.2510384650624246</v>
+        <v>-0.01172983137991116</v>
       </c>
       <c r="E80">
-        <v>-0.889446123040784</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0428372326126952</v>
+      </c>
+      <c r="F80">
+        <v>0.07416227195864418</v>
+      </c>
+      <c r="G80">
+        <v>0.9134978711431606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0001031180177044924</v>
+        <v>0.1459216600762095</v>
       </c>
       <c r="C81">
-        <v>0.1479551880903693</v>
+        <v>0.09193533215274875</v>
       </c>
       <c r="D81">
-        <v>0.1410452219382716</v>
+        <v>0.01620194882748072</v>
       </c>
       <c r="E81">
-        <v>0.02613170466959226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04525536714608448</v>
+      </c>
+      <c r="F81">
+        <v>-0.1342523996058246</v>
+      </c>
+      <c r="G81">
+        <v>0.01842192307802373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05442197254929466</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03723561040131948</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002920527012231253</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01865301130718276</v>
+      </c>
+      <c r="F82">
+        <v>-0.006486746097905399</v>
+      </c>
+      <c r="G82">
+        <v>-0.006730574211766825</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006302321467798295</v>
+        <v>0.02846356097414456</v>
       </c>
       <c r="C83">
-        <v>0.03030621821986266</v>
+        <v>0.02076522102620471</v>
       </c>
       <c r="D83">
-        <v>0.02637571699013894</v>
+        <v>-0.005257171995041579</v>
       </c>
       <c r="E83">
-        <v>0.01120218481153066</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0257053647119918</v>
+      </c>
+      <c r="F83">
+        <v>0.01908708736863343</v>
+      </c>
+      <c r="G83">
+        <v>0.02224687316201963</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007772428431592229</v>
+        <v>0.2355328052215396</v>
       </c>
       <c r="C85">
-        <v>0.1822790944726881</v>
+        <v>0.1487787228160982</v>
       </c>
       <c r="D85">
-        <v>0.2312944389004564</v>
+        <v>0.01967452289778505</v>
       </c>
       <c r="E85">
-        <v>0.05955856864085521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1262343290128124</v>
+      </c>
+      <c r="F85">
+        <v>-0.1793373044135087</v>
+      </c>
+      <c r="G85">
+        <v>-0.05495238216929042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005374795822941852</v>
+        <v>0.01180820435175218</v>
       </c>
       <c r="C86">
-        <v>0.01371859162929166</v>
+        <v>0.02007480259020821</v>
       </c>
       <c r="D86">
-        <v>0.006796001350163175</v>
+        <v>-0.009668493481129024</v>
       </c>
       <c r="E86">
-        <v>0.01880232494564148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03759021107905209</v>
+      </c>
+      <c r="F86">
+        <v>0.02491487472093699</v>
+      </c>
+      <c r="G86">
+        <v>0.05008845749827923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006931907892775588</v>
+        <v>0.01628679361232592</v>
       </c>
       <c r="C87">
-        <v>0.01188413298705511</v>
+        <v>0.02805408665823008</v>
       </c>
       <c r="D87">
-        <v>0.03988325091366972</v>
+        <v>-0.01168882945548222</v>
       </c>
       <c r="E87">
-        <v>0.01258171542979666</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07764408838618531</v>
+      </c>
+      <c r="F87">
+        <v>0.0413892381401318</v>
+      </c>
+      <c r="G87">
+        <v>0.04274228482777529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02562676289737854</v>
+        <v>0.08973893009954466</v>
       </c>
       <c r="C88">
-        <v>0.04408525536037452</v>
+        <v>0.05965345404571738</v>
       </c>
       <c r="D88">
-        <v>0.0252385804045947</v>
+        <v>-0.0217117371400801</v>
       </c>
       <c r="E88">
-        <v>0.005501818355069292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0142148825779983</v>
+      </c>
+      <c r="F88">
+        <v>-0.01531383077776025</v>
+      </c>
+      <c r="G88">
+        <v>0.02469523612477021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05211176901430822</v>
+        <v>0.2190849994102944</v>
       </c>
       <c r="C89">
-        <v>0.3321183833399289</v>
+        <v>-0.3714407203337748</v>
       </c>
       <c r="D89">
-        <v>-0.290825638577219</v>
+        <v>0.009226764770869918</v>
       </c>
       <c r="E89">
-        <v>-0.004855697600592454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01954921141272103</v>
+      </c>
+      <c r="F89">
+        <v>-0.03227227381582992</v>
+      </c>
+      <c r="G89">
+        <v>0.0352784744003313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03954045090246765</v>
+        <v>0.1889263014470273</v>
       </c>
       <c r="C90">
-        <v>0.2446108488583335</v>
+        <v>-0.3370602187040906</v>
       </c>
       <c r="D90">
-        <v>-0.2646353246700072</v>
+        <v>0.01265139110221148</v>
       </c>
       <c r="E90">
-        <v>-0.00246212641427846</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.008513436638396264</v>
+      </c>
+      <c r="F90">
+        <v>-0.04746487171888894</v>
+      </c>
+      <c r="G90">
+        <v>-0.002693861859636394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.00291936085375694</v>
+        <v>0.2080885943323508</v>
       </c>
       <c r="C91">
-        <v>0.1966915246614703</v>
+        <v>0.136880291737661</v>
       </c>
       <c r="D91">
-        <v>0.2151188520750797</v>
+        <v>0.02527764088108669</v>
       </c>
       <c r="E91">
-        <v>0.04217494370119412</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09136500281116337</v>
+      </c>
+      <c r="F91">
+        <v>-0.1812483378050941</v>
+      </c>
+      <c r="G91">
+        <v>0.00665822082702764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.00587893817871781</v>
+        <v>0.2009151311284657</v>
       </c>
       <c r="C92">
-        <v>0.325334812390855</v>
+        <v>-0.2612888078733343</v>
       </c>
       <c r="D92">
-        <v>-0.1433306975095941</v>
+        <v>0.050551147036404</v>
       </c>
       <c r="E92">
-        <v>0.004430330988479107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.00797584651122334</v>
+      </c>
+      <c r="F92">
+        <v>-0.1121683269574329</v>
+      </c>
+      <c r="G92">
+        <v>0.06840865989301055</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03665911018565517</v>
+        <v>0.2139532870252183</v>
       </c>
       <c r="C93">
-        <v>0.2836056208555249</v>
+        <v>-0.3360517265531101</v>
       </c>
       <c r="D93">
-        <v>-0.267889905094843</v>
+        <v>0.01958675813319911</v>
       </c>
       <c r="E93">
-        <v>0.01930459802704424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001773924361228696</v>
+      </c>
+      <c r="F93">
+        <v>-0.02281346001410837</v>
+      </c>
+      <c r="G93">
+        <v>-0.001034748111308965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01869338448142503</v>
+        <v>0.2904715943271771</v>
       </c>
       <c r="C94">
-        <v>0.2446933352395039</v>
+        <v>0.1602915572198507</v>
       </c>
       <c r="D94">
-        <v>0.2041887103543385</v>
+        <v>0.01486040813130165</v>
       </c>
       <c r="E94">
-        <v>0.09044028641623743</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1239065548394788</v>
+      </c>
+      <c r="F94">
+        <v>-0.4281845401122676</v>
+      </c>
+      <c r="G94">
+        <v>-0.1160492285521936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006786477428200903</v>
+        <v>0.0798465812645693</v>
       </c>
       <c r="C95">
-        <v>0.04641561445429313</v>
+        <v>0.07615674424514013</v>
       </c>
       <c r="D95">
-        <v>0.07078116461409091</v>
+        <v>0.006312034191063579</v>
       </c>
       <c r="E95">
-        <v>0.1209035931090945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08057081622464399</v>
+      </c>
+      <c r="F95">
+        <v>0.1703465983250952</v>
+      </c>
+      <c r="G95">
+        <v>-0.04830798190211507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.003820771446939665</v>
+        <v>0.2072700360076239</v>
       </c>
       <c r="C98">
-        <v>0.1689127127038882</v>
+        <v>0.0442662168404782</v>
       </c>
       <c r="D98">
-        <v>0.1084195021278393</v>
+        <v>0.01642996325097082</v>
       </c>
       <c r="E98">
-        <v>0.07970265968934048</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07722357870872326</v>
+      </c>
+      <c r="F98">
+        <v>0.2471229691501509</v>
+      </c>
+      <c r="G98">
+        <v>-0.04329856003813744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007000890581038454</v>
+        <v>0.01346159912211023</v>
       </c>
       <c r="C101">
-        <v>0.01976734634306436</v>
+        <v>0.02055767393713382</v>
       </c>
       <c r="D101">
-        <v>0.01466162892254078</v>
+        <v>-0.006964228045424192</v>
       </c>
       <c r="E101">
-        <v>-0.005123198055687411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008697443455396603</v>
+      </c>
+      <c r="F101">
+        <v>-0.0109167594844025</v>
+      </c>
+      <c r="G101">
+        <v>0.02875588220510623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01286447052803694</v>
+        <v>0.1231018244335919</v>
       </c>
       <c r="C102">
-        <v>0.1155807389802832</v>
+        <v>0.08049241844920173</v>
       </c>
       <c r="D102">
-        <v>0.1126169499373924</v>
+        <v>-0.0003155917671843953</v>
       </c>
       <c r="E102">
-        <v>0.03120545246564969</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03916160300009647</v>
+      </c>
+      <c r="F102">
+        <v>-0.0526834452652183</v>
+      </c>
+      <c r="G102">
+        <v>-0.006039630754856706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001895092474179997</v>
+        <v>0.004311622323070475</v>
       </c>
       <c r="C103">
-        <v>0.01767709555822441</v>
+        <v>0.005097816935986176</v>
       </c>
       <c r="D103">
-        <v>0.02680307942004651</v>
+        <v>-0.0005508089556939993</v>
       </c>
       <c r="E103">
-        <v>-0.0108838569438814</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0003133322994727386</v>
+      </c>
+      <c r="F103">
+        <v>-0.008674875003740173</v>
+      </c>
+      <c r="G103">
+        <v>0.01834980981949512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9860976248943741</v>
+        <v>0.03693699134179832</v>
       </c>
       <c r="C104">
-        <v>-0.09483060414057708</v>
+        <v>-0.04447567131891179</v>
       </c>
       <c r="D104">
-        <v>0.007369904322324176</v>
+        <v>-0.9867489100645325</v>
       </c>
       <c r="E104">
-        <v>-0.02577564883873514</v>
+        <v>0.0445504339823127</v>
+      </c>
+      <c r="F104">
+        <v>-0.04036341029346356</v>
+      </c>
+      <c r="G104">
+        <v>-0.002604487564023812</v>
       </c>
     </row>
   </sheetData>
